--- a/self_training_sample_Fsoft.xlsx
+++ b/self_training_sample_Fsoft.xlsx
@@ -8,16 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Grad School\Machine_Learning_Pattern_Recognition\documentation-simplification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC8AE3C-AC60-4E16-9423-45B81E3E13FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54509C7-0F64-4A91-84E5-B4813D133DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28201,8 +28212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q101" sqref="Q101"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34345,7 +34356,7 @@
       <c r="P101" t="s">
         <v>2011</v>
       </c>
-      <c r="Q101" s="6" t="s">
+      <c r="Q101" s="4" t="s">
         <v>2572</v>
       </c>
       <c r="R101" t="s">

--- a/self_training_sample_Fsoft.xlsx
+++ b/self_training_sample_Fsoft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Grad School\Machine_Learning_Pattern_Recognition\documentation-simplification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54509C7-0F64-4A91-84E5-B4813D133DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE80B324-8D08-487B-AB26-0E1C4B54CC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16681,7 +16681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S201"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
@@ -28212,8 +28212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="F86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
